--- a/220104_A프로젝트_기능명세서_유영준.xlsx
+++ b/220104_A프로젝트_기능명세서_유영준.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="기능명세서" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">기능명세서!$A$2:$G$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -201,17 +201,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -549,97 +549,97 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>44564</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>3</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>44564</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>44564</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>44567</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>44567</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
